--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>430537.989245682</v>
+        <v>427005.8297057934</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24355845.48069518</v>
+        <v>24355845.4806952</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6096086.436461042</v>
+        <v>6096086.436461046</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>343.6154541817038</v>
       </c>
       <c r="X2" t="n">
-        <v>90.87646082889182</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>116.5976304382895</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.88583545692059</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.9052068914974</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>144.5345039012222</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.354936217605</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>100.5884508778647</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>401.385801171625</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>252.641166882018</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1150,10 +1150,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1299,10 +1299,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>166.0658769025639</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>90.63804810364307</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>290.1582756701713</v>
+        <v>398.8276501738994</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>279.8553184012138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>69.87107868968786</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>378.7899895854252</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>47.27526171296046</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9358960517708</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>136.5036069897751</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>78.9678726720765</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>238.0923464803452</v>
       </c>
       <c r="U13" t="n">
-        <v>178.7754305564695</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,10 +1615,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>120.4335981445982</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.2900506368909</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>329.0164875002008</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>60.4541657129497</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9358960517708</v>
       </c>
       <c r="H16" t="n">
-        <v>76.44300869089065</v>
+        <v>136.5036069897751</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>78.9678726720765</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>16.95949471585981</v>
       </c>
       <c r="S16" t="n">
         <v>156.9577689564853</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1855,13 +1855,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>85.65010459774224</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.87107868968786</v>
       </c>
       <c r="T17" t="n">
         <v>212.2900506368909</v>
@@ -1906,13 +1906,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>151.8877814893071</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2019,7 @@
         <v>163.9358960517708</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>136.5036069897751</v>
       </c>
       <c r="I19" t="n">
         <v>78.9678726720765</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>13.02828615981529</v>
+        <v>16.95949471585981</v>
       </c>
       <c r="S19" t="n">
         <v>156.9577689564853</v>
@@ -2058,7 +2058,7 @@
         <v>238.0923464803452</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3466856170475</v>
+        <v>136.911870071228</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2086,19 +2086,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>50.8662800390175</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.8276501738994</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>279.8553184012138</v>
+        <v>221.0294326697577</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.87107868968786</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2250,7 +2250,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>29.70834093736513</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.9358960517708</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>83.64452508133546</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>76.99008503514251</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>238.8052299319489</v>
+        <v>398.8276501738994</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>279.8553184012138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.87107868968786</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.2900506368909</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6539185805481</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>21.24878959867698</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2493,10 +2493,10 @@
         <v>163.9358960517708</v>
       </c>
       <c r="H25" t="n">
-        <v>136.5036069897751</v>
+        <v>91.99615883189146</v>
       </c>
       <c r="I25" t="n">
-        <v>78.9678726720765</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>16.95949471585981</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>156.9577689564853</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>334.4572490013344</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>267.9959842698815</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>69.87107868968786</v>
       </c>
       <c r="T26" t="n">
         <v>212.2900506368909</v>
@@ -2721,7 +2721,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>24.11130824285499</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2769,7 +2769,7 @@
         <v>238.0923464803452</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3466856170475</v>
+        <v>136.911870071228</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>379.2681296872404</v>
+        <v>398.8276501738994</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>279.8553184012138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.2900506368909</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6539185805481</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2860,7 +2860,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>75.23130234080347</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>38.20828431453691</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.95949471585981</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>156.9577689564853</v>
@@ -3009,7 +3009,7 @@
         <v>277.3466856170475</v>
       </c>
       <c r="V31" t="n">
-        <v>138.4595371722315</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>26.70804899328954</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.8276501738994</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>279.8553184012138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>69.87107868968786</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.2900506368909</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6539185805481</v>
       </c>
       <c r="V32" t="n">
-        <v>290.9005113594456</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3204,10 +3204,10 @@
         <v>163.9358960517708</v>
       </c>
       <c r="H34" t="n">
-        <v>136.5036069897751</v>
+        <v>91.99615883189146</v>
       </c>
       <c r="I34" t="n">
-        <v>78.9678726720765</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>156.9577689564853</v>
       </c>
       <c r="T34" t="n">
-        <v>114.6170256503857</v>
+        <v>238.0923464803452</v>
       </c>
       <c r="U34" t="n">
         <v>277.3466856170475</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>305.2664946634019</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>298.5162855898188</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.8276501738994</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.87107868968786</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.2900506368909</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6539185805481</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3432,7 +3432,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>24.11130824285499</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>99.70344204283293</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12.59367738359872</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.8276501738994</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>279.8553184012138</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.87107868968786</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.2900506368909</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6539185805481</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>297.2194128587173</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>29.81802194405316</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3672,7 +3672,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>29.70834093736513</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>163.9358960517708</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>69.87107868968786</v>
       </c>
       <c r="T41" t="n">
-        <v>171.4644004167435</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>110.3884091509182</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9358960517708</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>16.95949471585981</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>156.9577689564853</v>
       </c>
       <c r="T43" t="n">
-        <v>238.0923464803452</v>
+        <v>19.29173547422897</v>
       </c>
       <c r="U43" t="n">
-        <v>178.7754305564691</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>154.2993102812742</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>69.87107868968786</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>36.44814784521933</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>16.95949471585981</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>156.9577689564853</v>
       </c>
       <c r="T46" t="n">
-        <v>139.6307724264548</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3466856170475</v>
+        <v>213.7362896911089</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>824.2522897001688</v>
+        <v>157.2403783903284</v>
       </c>
       <c r="C2" t="n">
-        <v>397.351559713469</v>
+        <v>134.3800524440326</v>
       </c>
       <c r="D2" t="n">
-        <v>378.0993429388733</v>
+        <v>115.1278356694369</v>
       </c>
       <c r="E2" t="n">
-        <v>356.162807127135</v>
+        <v>93.19129985769854</v>
       </c>
       <c r="F2" t="n">
-        <v>335.0790293569393</v>
+        <v>72.10752208750284</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082673</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L2" t="n">
-        <v>475.942330131692</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M2" t="n">
-        <v>475.942330131692</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N2" t="n">
-        <v>475.942330131692</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O2" t="n">
-        <v>932.7282368344228</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4369,13 +4369,13 @@
         <v>1741.232328914477</v>
       </c>
       <c r="W2" t="n">
-        <v>1741.232328914477</v>
+        <v>1394.146011559221</v>
       </c>
       <c r="X2" t="n">
-        <v>1649.437924036808</v>
+        <v>982.4260127269681</v>
       </c>
       <c r="Y2" t="n">
-        <v>1244.100653991699</v>
+        <v>577.0887426818584</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922821</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
         <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
         <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851711</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
         <v>36.9119924608267</v>
@@ -4409,28 +4409,28 @@
         <v>36.9119924608267</v>
       </c>
       <c r="J3" t="n">
-        <v>308.6094817404178</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="K3" t="n">
-        <v>308.6094817404178</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="L3" t="n">
-        <v>308.6094817404178</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="M3" t="n">
-        <v>765.3953884431486</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="N3" t="n">
-        <v>1222.181295145879</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="O3" t="n">
-        <v>1678.96720184861</v>
+        <v>932.027809635875</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956633</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590524</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123448</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1020.32454672534</v>
+        <v>375.0927614290572</v>
       </c>
       <c r="C4" t="n">
-        <v>848.3519836042556</v>
+        <v>203.1201983079732</v>
       </c>
       <c r="D4" t="n">
-        <v>685.0352107310263</v>
+        <v>203.1201983079732</v>
       </c>
       <c r="E4" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082673</v>
+        <v>78.10605253212941</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>304.6336537379666</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>659.3229750323874</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>1050.508770002638</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4515,25 +4515,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U4" t="n">
-        <v>1845.599623041337</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V4" t="n">
-        <v>1563.888155649365</v>
+        <v>1034.165395005576</v>
       </c>
       <c r="W4" t="n">
-        <v>1289.035751821878</v>
+        <v>1034.165395005576</v>
       </c>
       <c r="X4" t="n">
-        <v>1046.471855267684</v>
+        <v>791.6014984513808</v>
       </c>
       <c r="Y4" t="n">
-        <v>1020.32454672534</v>
+        <v>565.2587301411229</v>
       </c>
     </row>
     <row r="5">
@@ -4549,10 +4549,10 @@
         <v>801.3919637538731</v>
       </c>
       <c r="D5" t="n">
-        <v>378.0993429388733</v>
+        <v>782.1397469792774</v>
       </c>
       <c r="E5" t="n">
-        <v>356.162807127135</v>
+        <v>760.2032111675391</v>
       </c>
       <c r="F5" t="n">
         <v>335.0790293569393</v>
@@ -4561,58 +4561,58 @@
         <v>334.7803709867919</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M5" t="n">
-        <v>932.0278096358751</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N5" t="n">
-        <v>1388.813716338606</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O5" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.110208167586</v>
+        <v>1383.742914040727</v>
       </c>
       <c r="W5" t="n">
-        <v>1091.718858467933</v>
+        <v>987.3515643410735</v>
       </c>
       <c r="X5" t="n">
-        <v>1084.039263676084</v>
+        <v>841.3571159560006</v>
       </c>
       <c r="Y5" t="n">
-        <v>1082.742397671379</v>
+        <v>840.060249951295</v>
       </c>
     </row>
     <row r="6">
@@ -4628,46 +4628,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K6" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="L6" t="n">
-        <v>950.4838058662883</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="M6" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="N6" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>911.6745856373311</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="C7" t="n">
-        <v>739.7020225162471</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="D7" t="n">
-        <v>576.3852496430178</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="E7" t="n">
         <v>446.7337989181643</v>
@@ -4722,7 +4722,7 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
         <v>94.40332068498475</v>
@@ -4734,43 +4734,43 @@
         <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>695.0806413228745</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.57215219891</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878673</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U7" t="n">
-        <v>1845.599623041337</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V7" t="n">
-        <v>1845.599623041337</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W7" t="n">
-        <v>1570.74721921385</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X7" t="n">
-        <v>1328.183322659655</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="Y7" t="n">
-        <v>1101.840554349397</v>
+        <v>446.7337989181643</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>526.3839111742037</v>
+        <v>1495.52233691143</v>
       </c>
       <c r="C8" t="n">
-        <v>503.5235852279079</v>
+        <v>1240.329239050806</v>
       </c>
       <c r="D8" t="n">
-        <v>484.2713684533122</v>
+        <v>1221.07702227621</v>
       </c>
       <c r="E8" t="n">
-        <v>462.3348326415738</v>
+        <v>795.1000824240679</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2510548713781</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082673</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
         <v>399.5154512777223</v>
@@ -4810,22 +4810,22 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M8" t="n">
-        <v>932.7282368344228</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N8" t="n">
-        <v>932.7282368344228</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O8" t="n">
-        <v>932.7282368344228</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4834,22 +4834,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U8" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="W8" t="n">
-        <v>1344.840979214824</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="X8" t="n">
-        <v>1337.161384422975</v>
+        <v>1512.627163167262</v>
       </c>
       <c r="Y8" t="n">
-        <v>931.8241143778654</v>
+        <v>1511.330297162556</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>932.0278096358751</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="M9" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>539.9446384577299</v>
+        <v>538.4095343022865</v>
       </c>
       <c r="C10" t="n">
-        <v>367.9720753366458</v>
+        <v>366.4369711812025</v>
       </c>
       <c r="D10" t="n">
-        <v>204.6553024634165</v>
+        <v>203.1201983079732</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6553024634165</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>36.91199246082673</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>303.8948463526237</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>695.0806413228745</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.57215219891</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878673</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
@@ -4995,19 +4995,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U10" t="n">
-        <v>1565.415174541641</v>
+        <v>1754.046039098263</v>
       </c>
       <c r="V10" t="n">
-        <v>1283.70370714967</v>
+        <v>1472.334571706292</v>
       </c>
       <c r="W10" t="n">
-        <v>1008.851303322183</v>
+        <v>1197.482167878805</v>
       </c>
       <c r="X10" t="n">
-        <v>766.2874067679878</v>
+        <v>954.91827132461</v>
       </c>
       <c r="Y10" t="n">
-        <v>539.9446384577299</v>
+        <v>728.5755030143521</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1182.026071601734</v>
+        <v>722.4503445569007</v>
       </c>
       <c r="C11" t="n">
-        <v>755.1253416150339</v>
+        <v>722.4503445569007</v>
       </c>
       <c r="D11" t="n">
-        <v>755.1253416150339</v>
+        <v>722.4503445569007</v>
       </c>
       <c r="E11" t="n">
-        <v>755.1253416150339</v>
+        <v>722.4503445569007</v>
       </c>
       <c r="F11" t="n">
-        <v>330.0011598044341</v>
+        <v>722.4503445569007</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082673</v>
+        <v>319.5941322600327</v>
       </c>
       <c r="H11" t="n">
         <v>36.91199246082673</v>
@@ -5041,52 +5041,52 @@
         <v>58.73951312782444</v>
       </c>
       <c r="J11" t="n">
-        <v>506.7237047561023</v>
+        <v>152.9642875815827</v>
       </c>
       <c r="K11" t="n">
-        <v>656.187225624232</v>
+        <v>302.4278084497124</v>
       </c>
       <c r="L11" t="n">
-        <v>847.6064760316463</v>
+        <v>493.8470588571266</v>
       </c>
       <c r="M11" t="n">
-        <v>1065.743558235522</v>
+        <v>711.9841410610023</v>
       </c>
       <c r="N11" t="n">
-        <v>1288.160070346315</v>
+        <v>934.4006531717953</v>
       </c>
       <c r="O11" t="n">
-        <v>1496.014695790084</v>
+        <v>1142.255278615564</v>
       </c>
       <c r="P11" t="n">
-        <v>1667.807397080044</v>
+        <v>1314.047979905524</v>
       </c>
       <c r="Q11" t="n">
-        <v>1788.988489944253</v>
+        <v>1636.749831666502</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1775.022775880036</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1775.022775880036</v>
       </c>
       <c r="U11" t="n">
-        <v>1587.363341646844</v>
+        <v>1516.786494485543</v>
       </c>
       <c r="V11" t="n">
-        <v>1587.363341646844</v>
+        <v>1516.786494485543</v>
       </c>
       <c r="W11" t="n">
-        <v>1587.363341646844</v>
+        <v>1516.786494485543</v>
       </c>
       <c r="X11" t="n">
-        <v>1587.363341646844</v>
+        <v>1105.06649565329</v>
       </c>
       <c r="Y11" t="n">
-        <v>1182.026071601734</v>
+        <v>722.4503445569007</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>71.13148049843555</v>
       </c>
       <c r="J12" t="n">
-        <v>124.1932105282558</v>
+        <v>416.2957029978469</v>
       </c>
       <c r="K12" t="n">
-        <v>491.4340971651956</v>
+        <v>821.2844578192166</v>
       </c>
       <c r="L12" t="n">
-        <v>637.9836129706407</v>
+        <v>967.8339736246618</v>
       </c>
       <c r="M12" t="n">
-        <v>812.1454766994888</v>
+        <v>1141.99583735351</v>
       </c>
       <c r="N12" t="n">
-        <v>993.2582915252488</v>
+        <v>1323.10865217927</v>
       </c>
       <c r="O12" t="n">
-        <v>1155.33041711061</v>
+        <v>1485.180777764631</v>
       </c>
       <c r="P12" t="n">
         <v>1612.11632381334</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.8845555819107</v>
+        <v>805.9745355905671</v>
       </c>
       <c r="C13" t="n">
-        <v>36.91199246082673</v>
+        <v>805.9745355905671</v>
       </c>
       <c r="D13" t="n">
-        <v>36.91199246082673</v>
+        <v>758.2217459815162</v>
       </c>
       <c r="E13" t="n">
-        <v>36.91199246082673</v>
+        <v>592.0135401343697</v>
       </c>
       <c r="F13" t="n">
-        <v>36.91199246082673</v>
+        <v>420.1517659089301</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082673</v>
+        <v>254.5599517152223</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082673</v>
+        <v>116.6775204124192</v>
       </c>
       <c r="I13" t="n">
         <v>36.91199246082673</v>
@@ -5208,13 +5208,13 @@
         <v>517.985705585389</v>
       </c>
       <c r="M13" t="n">
-        <v>974.7716122881199</v>
+        <v>919.1439625613468</v>
       </c>
       <c r="N13" t="n">
-        <v>1311.120129133258</v>
+        <v>998.3639245599506</v>
       </c>
       <c r="O13" t="n">
-        <v>1758.694033515465</v>
+        <v>1445.937828942158</v>
       </c>
       <c r="P13" t="n">
         <v>1815.383670652154</v>
@@ -5232,19 +5232,19 @@
         <v>1605.10230336422</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.521060377887</v>
+        <v>1605.10230336422</v>
       </c>
       <c r="V13" t="n">
-        <v>1142.809592985916</v>
+        <v>1323.390835972249</v>
       </c>
       <c r="W13" t="n">
-        <v>867.9571891584293</v>
+        <v>1048.538432144762</v>
       </c>
       <c r="X13" t="n">
-        <v>625.3932926042344</v>
+        <v>805.9745355905671</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.0505242939764</v>
+        <v>805.9745355905671</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>887.1053432625264</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="C14" t="n">
-        <v>460.2046132758265</v>
+        <v>1006.978894222384</v>
       </c>
       <c r="D14" t="n">
-        <v>36.91199246082673</v>
+        <v>583.6862734073843</v>
       </c>
       <c r="E14" t="n">
-        <v>36.91199246082673</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F14" t="n">
         <v>36.91199246082673</v>
@@ -5278,28 +5278,28 @@
         <v>58.73951312782444</v>
       </c>
       <c r="J14" t="n">
-        <v>354.4850464783512</v>
+        <v>171.1188909175805</v>
       </c>
       <c r="K14" t="n">
-        <v>503.9485673464809</v>
+        <v>320.5824117857102</v>
       </c>
       <c r="L14" t="n">
-        <v>695.3678177538951</v>
+        <v>512.0016621931244</v>
       </c>
       <c r="M14" t="n">
-        <v>913.5048999577708</v>
+        <v>730.1387443970001</v>
       </c>
       <c r="N14" t="n">
-        <v>1135.921412068564</v>
+        <v>952.555256507793</v>
       </c>
       <c r="O14" t="n">
-        <v>1343.776037512333</v>
+        <v>1160.409881951562</v>
       </c>
       <c r="P14" t="n">
-        <v>1515.568738802293</v>
+        <v>1332.202583241522</v>
       </c>
       <c r="Q14" t="n">
-        <v>1636.749831666502</v>
+        <v>1788.988489944253</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
@@ -5308,22 +5308,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T14" t="n">
-        <v>1631.165228458618</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U14" t="n">
-        <v>1631.165228458618</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V14" t="n">
-        <v>1298.825342094779</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W14" t="n">
-        <v>1298.825342094779</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X14" t="n">
-        <v>887.1053432625264</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y14" t="n">
-        <v>887.1053432625264</v>
+        <v>1433.879624209084</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>71.13148049843555</v>
       </c>
       <c r="J15" t="n">
-        <v>124.1932105282558</v>
+        <v>416.2957029978469</v>
       </c>
       <c r="K15" t="n">
-        <v>227.584317715031</v>
+        <v>519.6868101846221</v>
       </c>
       <c r="L15" t="n">
-        <v>684.3702244177618</v>
+        <v>666.2363259900673</v>
       </c>
       <c r="M15" t="n">
-        <v>858.5320881466099</v>
+        <v>840.3981897189153</v>
       </c>
       <c r="N15" t="n">
-        <v>1039.64490297237</v>
+        <v>1048.519427292692</v>
       </c>
       <c r="O15" t="n">
-        <v>1496.430809675101</v>
+        <v>1210.591552878053</v>
       </c>
       <c r="P15" t="n">
-        <v>1717.571824098246</v>
+        <v>1337.527098926762</v>
       </c>
       <c r="Q15" t="n">
         <v>1794.313005629493</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>787.486468821555</v>
+        <v>1093.511081975829</v>
       </c>
       <c r="C16" t="n">
-        <v>615.513905700471</v>
+        <v>921.5385188547455</v>
       </c>
       <c r="D16" t="n">
-        <v>452.1971328272417</v>
+        <v>758.2217459815162</v>
       </c>
       <c r="E16" t="n">
-        <v>285.9889269800952</v>
+        <v>592.0135401343697</v>
       </c>
       <c r="F16" t="n">
-        <v>114.1271527546557</v>
+        <v>420.1517659089301</v>
       </c>
       <c r="G16" t="n">
-        <v>114.1271527546557</v>
+        <v>254.5599517152223</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082673</v>
+        <v>116.6775204124192</v>
       </c>
       <c r="I16" t="n">
         <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>62.57227149482321</v>
+        <v>140.4939881430441</v>
       </c>
       <c r="K16" t="n">
-        <v>117.5583887138079</v>
+        <v>442.7627144760509</v>
       </c>
       <c r="L16" t="n">
-        <v>397.5483157277965</v>
+        <v>894.3745991765539</v>
       </c>
       <c r="M16" t="n">
-        <v>854.3342224305273</v>
+        <v>1351.160505879285</v>
       </c>
       <c r="N16" t="n">
-        <v>1311.120129133258</v>
+        <v>1688.822453436462</v>
       </c>
       <c r="O16" t="n">
         <v>1758.694033515465</v>
@@ -5460,28 +5460,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041337</v>
+        <v>1828.468820298044</v>
       </c>
       <c r="S16" t="n">
-        <v>1687.05642207519</v>
+        <v>1669.925619331897</v>
       </c>
       <c r="T16" t="n">
-        <v>1446.559102398073</v>
+        <v>1429.428299654781</v>
       </c>
       <c r="U16" t="n">
-        <v>1446.559102398073</v>
+        <v>1429.428299654781</v>
       </c>
       <c r="V16" t="n">
-        <v>1446.559102398073</v>
+        <v>1429.428299654781</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.559102398073</v>
+        <v>1154.575895827294</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.995205843879</v>
+        <v>1154.575895827294</v>
       </c>
       <c r="Y16" t="n">
-        <v>977.6524375336207</v>
+        <v>1154.575895827294</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1333.85808118346</v>
+        <v>1845.497520163497</v>
       </c>
       <c r="C17" t="n">
-        <v>906.9573511967606</v>
+        <v>1418.596790176797</v>
       </c>
       <c r="D17" t="n">
-        <v>483.6647303817608</v>
+        <v>995.3041693617972</v>
       </c>
       <c r="E17" t="n">
-        <v>57.68779052961839</v>
+        <v>569.3272295096548</v>
       </c>
       <c r="F17" t="n">
-        <v>57.68779052961839</v>
+        <v>144.203047699055</v>
       </c>
       <c r="G17" t="n">
-        <v>57.68779052961839</v>
+        <v>144.203047699055</v>
       </c>
       <c r="H17" t="n">
         <v>57.68779052961839</v>
@@ -5515,25 +5515,25 @@
         <v>79.5153111966161</v>
       </c>
       <c r="J17" t="n">
-        <v>173.7400856503744</v>
+        <v>565.4693043580005</v>
       </c>
       <c r="K17" t="n">
-        <v>887.626493454402</v>
+        <v>714.9328252261303</v>
       </c>
       <c r="L17" t="n">
-        <v>1079.045743861816</v>
+        <v>906.3520756335445</v>
       </c>
       <c r="M17" t="n">
-        <v>1297.182826065692</v>
+        <v>1124.48915783742</v>
       </c>
       <c r="N17" t="n">
-        <v>1519.599338176485</v>
+        <v>1346.905669948213</v>
       </c>
       <c r="O17" t="n">
-        <v>2233.485745980512</v>
+        <v>1554.760295391982</v>
       </c>
       <c r="P17" t="n">
-        <v>2405.278447270472</v>
+        <v>2062.509734879141</v>
       </c>
       <c r="Q17" t="n">
         <v>2675.539735106085</v>
@@ -5542,25 +5542,25 @@
         <v>2884.389526480919</v>
       </c>
       <c r="S17" t="n">
-        <v>2884.389526480919</v>
+        <v>2813.812679319618</v>
       </c>
       <c r="T17" t="n">
-        <v>2669.955131898201</v>
+        <v>2599.3782847369</v>
       </c>
       <c r="U17" t="n">
-        <v>2669.955131898201</v>
+        <v>2599.3782847369</v>
       </c>
       <c r="V17" t="n">
-        <v>2312.465717024451</v>
+        <v>2241.88886986315</v>
       </c>
       <c r="W17" t="n">
-        <v>2159.0437155201</v>
+        <v>1845.497520163497</v>
       </c>
       <c r="X17" t="n">
-        <v>2159.0437155201</v>
+        <v>1845.497520163497</v>
       </c>
       <c r="Y17" t="n">
-        <v>1753.70644547499</v>
+        <v>1845.497520163497</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>437.0715010666385</v>
       </c>
       <c r="K18" t="n">
-        <v>842.0602558880084</v>
+        <v>540.4626082534138</v>
       </c>
       <c r="L18" t="n">
-        <v>988.6097716934536</v>
+        <v>687.0121240588589</v>
       </c>
       <c r="M18" t="n">
-        <v>1162.771635422302</v>
+        <v>861.173987787707</v>
       </c>
       <c r="N18" t="n">
-        <v>1343.884450248062</v>
+        <v>1042.286802613467</v>
       </c>
       <c r="O18" t="n">
-        <v>1505.956575833423</v>
+        <v>1204.358928198828</v>
       </c>
       <c r="P18" t="n">
-        <v>1632.892121882132</v>
+        <v>1331.294474247537</v>
       </c>
       <c r="Q18" t="n">
         <v>1709.633303413379</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>976.4044487418181</v>
+        <v>1114.286880044621</v>
       </c>
       <c r="C19" t="n">
-        <v>804.4318856207341</v>
+        <v>942.3143169235371</v>
       </c>
       <c r="D19" t="n">
-        <v>641.1151127475048</v>
+        <v>778.9975440503079</v>
       </c>
       <c r="E19" t="n">
-        <v>474.9069069003583</v>
+        <v>612.7893382031614</v>
       </c>
       <c r="F19" t="n">
-        <v>303.0451326749187</v>
+        <v>440.9275639777218</v>
       </c>
       <c r="G19" t="n">
-        <v>137.4533184812108</v>
+        <v>275.335749784014</v>
       </c>
       <c r="H19" t="n">
         <v>137.4533184812108</v>
@@ -5673,22 +5673,22 @@
         <v>57.68779052961839</v>
       </c>
       <c r="J19" t="n">
-        <v>161.2697862118357</v>
+        <v>161.2697862118359</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5385125448424</v>
+        <v>463.5385125448427</v>
       </c>
       <c r="L19" t="n">
-        <v>915.1503972453454</v>
+        <v>915.1503972453459</v>
       </c>
       <c r="M19" t="n">
         <v>1408.527445781151</v>
       </c>
       <c r="N19" t="n">
-        <v>1885.780330621635</v>
+        <v>1885.780330621634</v>
       </c>
       <c r="O19" t="n">
-        <v>2333.354235003842</v>
+        <v>2333.354235003841</v>
       </c>
       <c r="P19" t="n">
         <v>2702.800076713838</v>
@@ -5697,28 +5697,28 @@
         <v>2884.389526480919</v>
       </c>
       <c r="R19" t="n">
-        <v>2871.229641471005</v>
+        <v>2867.258723737626</v>
       </c>
       <c r="S19" t="n">
-        <v>2712.686440504858</v>
+        <v>2708.71552277148</v>
       </c>
       <c r="T19" t="n">
-        <v>2472.189120827742</v>
+        <v>2468.218203094363</v>
       </c>
       <c r="U19" t="n">
-        <v>2192.040953537794</v>
+        <v>2329.923384840597</v>
       </c>
       <c r="V19" t="n">
-        <v>1910.329486145823</v>
+        <v>2048.211917448627</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.477082318336</v>
+        <v>1773.35951362114</v>
       </c>
       <c r="X19" t="n">
-        <v>1392.913185764142</v>
+        <v>1530.795617066945</v>
       </c>
       <c r="Y19" t="n">
-        <v>1166.570417453884</v>
+        <v>1304.452848756687</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1647.483893312027</v>
+        <v>1982.244316195836</v>
       </c>
       <c r="C20" t="n">
-        <v>1220.583163325327</v>
+        <v>1555.343586209136</v>
       </c>
       <c r="D20" t="n">
-        <v>1220.583163325327</v>
+        <v>1132.050965394136</v>
       </c>
       <c r="E20" t="n">
-        <v>794.6062234731847</v>
+        <v>706.0740255419936</v>
       </c>
       <c r="F20" t="n">
-        <v>743.2261426256923</v>
+        <v>280.9498437313938</v>
       </c>
       <c r="G20" t="n">
-        <v>340.3699303288243</v>
+        <v>280.9498437313938</v>
       </c>
       <c r="H20" t="n">
         <v>57.68779052961839</v>
@@ -5752,25 +5752,25 @@
         <v>79.5153111966161</v>
       </c>
       <c r="J20" t="n">
-        <v>406.0557286245477</v>
+        <v>565.4693043580005</v>
       </c>
       <c r="K20" t="n">
-        <v>555.5192494926774</v>
+        <v>1050.889563423329</v>
       </c>
       <c r="L20" t="n">
-        <v>746.9384999000916</v>
+        <v>1242.308813830743</v>
       </c>
       <c r="M20" t="n">
-        <v>1460.824907704119</v>
+        <v>1460.445896034619</v>
       </c>
       <c r="N20" t="n">
-        <v>2174.711315508147</v>
+        <v>1682.862408145412</v>
       </c>
       <c r="O20" t="n">
-        <v>2382.565940951916</v>
+        <v>1890.717033589181</v>
       </c>
       <c r="P20" t="n">
-        <v>2554.358642241876</v>
+        <v>2062.509734879141</v>
       </c>
       <c r="Q20" t="n">
         <v>2675.539735106085</v>
@@ -5779,25 +5779,25 @@
         <v>2884.389526480919</v>
       </c>
       <c r="S20" t="n">
-        <v>2884.389526480919</v>
+        <v>2813.812679319618</v>
       </c>
       <c r="T20" t="n">
-        <v>2884.389526480919</v>
+        <v>2813.812679319618</v>
       </c>
       <c r="U20" t="n">
-        <v>2884.389526480919</v>
+        <v>2813.812679319618</v>
       </c>
       <c r="V20" t="n">
-        <v>2884.389526480919</v>
+        <v>2813.812679319618</v>
       </c>
       <c r="W20" t="n">
-        <v>2884.389526480919</v>
+        <v>2813.812679319618</v>
       </c>
       <c r="X20" t="n">
-        <v>2472.669527648667</v>
+        <v>2402.092680487366</v>
       </c>
       <c r="Y20" t="n">
-        <v>2067.332257603557</v>
+        <v>2402.092680487366</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>91.90727856722721</v>
       </c>
       <c r="J21" t="n">
-        <v>144.9690085970474</v>
+        <v>437.0715010666385</v>
       </c>
       <c r="K21" t="n">
-        <v>248.3601157838227</v>
+        <v>540.4626082534138</v>
       </c>
       <c r="L21" t="n">
-        <v>542.250989759693</v>
+        <v>687.0121240588589</v>
       </c>
       <c r="M21" t="n">
-        <v>716.412853488541</v>
+        <v>861.173987787707</v>
       </c>
       <c r="N21" t="n">
-        <v>897.525668314301</v>
+        <v>1042.286802613467</v>
       </c>
       <c r="O21" t="n">
-        <v>1611.412076118329</v>
+        <v>1204.358928198828</v>
       </c>
       <c r="P21" t="n">
-        <v>1738.347622167038</v>
+        <v>1331.294474247537</v>
       </c>
       <c r="Q21" t="n">
-        <v>1815.088803698285</v>
+        <v>1709.633303413379</v>
       </c>
       <c r="R21" t="n">
         <v>1839.93240902567</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>972.4335310084393</v>
+        <v>1114.286880044621</v>
       </c>
       <c r="C22" t="n">
-        <v>800.4609678873553</v>
+        <v>942.3143169235371</v>
       </c>
       <c r="D22" t="n">
-        <v>637.144195014126</v>
+        <v>778.9975440503079</v>
       </c>
       <c r="E22" t="n">
-        <v>470.9359891669795</v>
+        <v>612.7893382031614</v>
       </c>
       <c r="F22" t="n">
         <v>440.9275639777218</v>
@@ -5910,13 +5910,13 @@
         <v>57.68779052961839</v>
       </c>
       <c r="J22" t="n">
-        <v>161.2697862118357</v>
+        <v>161.2697862118359</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5385125448424</v>
+        <v>463.5385125448427</v>
       </c>
       <c r="L22" t="n">
-        <v>915.1503972453454</v>
+        <v>915.1503972453459</v>
       </c>
       <c r="M22" t="n">
         <v>1408.527445781151</v>
@@ -5955,7 +5955,7 @@
         <v>1388.942268030763</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.599499720505</v>
+        <v>1304.452848756687</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1576.907046150726</v>
+        <v>1246.118087098052</v>
       </c>
       <c r="C23" t="n">
-        <v>1150.006316164026</v>
+        <v>1246.118087098052</v>
       </c>
       <c r="D23" t="n">
-        <v>1150.006316164026</v>
+        <v>1246.118087098052</v>
       </c>
       <c r="E23" t="n">
-        <v>724.0293763118838</v>
+        <v>1168.350324436292</v>
       </c>
       <c r="F23" t="n">
-        <v>298.905194501284</v>
+        <v>743.2261426256923</v>
       </c>
       <c r="G23" t="n">
-        <v>57.68779052961839</v>
+        <v>340.3699303288243</v>
       </c>
       <c r="H23" t="n">
         <v>57.68779052961839</v>
@@ -6001,10 +6001,10 @@
         <v>1124.48915783742</v>
       </c>
       <c r="N23" t="n">
-        <v>1682.862408145412</v>
+        <v>1346.905669948213</v>
       </c>
       <c r="O23" t="n">
-        <v>1890.717033589181</v>
+        <v>1554.760295391982</v>
       </c>
       <c r="P23" t="n">
         <v>2062.509734879141</v>
@@ -6016,25 +6016,25 @@
         <v>2884.389526480919</v>
       </c>
       <c r="S23" t="n">
-        <v>2813.812679319618</v>
+        <v>2884.389526480919</v>
       </c>
       <c r="T23" t="n">
-        <v>2813.812679319618</v>
+        <v>2669.955131898201</v>
       </c>
       <c r="U23" t="n">
-        <v>2813.812679319618</v>
+        <v>2411.718850503708</v>
       </c>
       <c r="V23" t="n">
-        <v>2813.812679319618</v>
+        <v>2054.229435629958</v>
       </c>
       <c r="W23" t="n">
-        <v>2813.812679319618</v>
+        <v>1657.838085930305</v>
       </c>
       <c r="X23" t="n">
-        <v>2402.092680487366</v>
+        <v>1246.118087098052</v>
       </c>
       <c r="Y23" t="n">
-        <v>1996.755410442256</v>
+        <v>1246.118087098052</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>68.44997272281537</v>
       </c>
       <c r="J24" t="n">
-        <v>121.5117027526356</v>
+        <v>413.6141952222267</v>
       </c>
       <c r="K24" t="n">
-        <v>224.9028099394108</v>
+        <v>517.005302409002</v>
       </c>
       <c r="L24" t="n">
-        <v>938.7892177434383</v>
+        <v>663.5548182144471</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.227135707207</v>
+        <v>837.7166819432952</v>
       </c>
       <c r="N24" t="n">
-        <v>1449.339950532968</v>
+        <v>1018.829496769055</v>
       </c>
       <c r="O24" t="n">
-        <v>1611.412076118329</v>
+        <v>1180.901622354416</v>
       </c>
       <c r="P24" t="n">
-        <v>1738.347622167038</v>
+        <v>1307.837168403126</v>
       </c>
       <c r="Q24" t="n">
         <v>1815.088803698285</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>972.4335310084393</v>
+        <v>989.5643337517322</v>
       </c>
       <c r="C25" t="n">
-        <v>800.4609678873553</v>
+        <v>817.5917706306482</v>
       </c>
       <c r="D25" t="n">
-        <v>778.9975440503079</v>
+        <v>654.2749977574189</v>
       </c>
       <c r="E25" t="n">
-        <v>612.7893382031614</v>
+        <v>488.0667919102724</v>
       </c>
       <c r="F25" t="n">
-        <v>440.9275639777218</v>
+        <v>316.2050176848328</v>
       </c>
       <c r="G25" t="n">
-        <v>275.335749784014</v>
+        <v>150.6132034911249</v>
       </c>
       <c r="H25" t="n">
-        <v>137.4533184812108</v>
+        <v>57.68779052961839</v>
       </c>
       <c r="I25" t="n">
         <v>57.68779052961839</v>
       </c>
       <c r="J25" t="n">
-        <v>161.2697862118355</v>
+        <v>161.2697862118357</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5385125448423</v>
+        <v>463.5385125448425</v>
       </c>
       <c r="L25" t="n">
-        <v>915.1503972453454</v>
+        <v>915.1503972453456</v>
       </c>
       <c r="M25" t="n">
         <v>1408.527445781151</v>
       </c>
       <c r="N25" t="n">
-        <v>1885.780330621634</v>
+        <v>1885.780330621635</v>
       </c>
       <c r="O25" t="n">
         <v>2333.354235003841</v>
@@ -6171,28 +6171,28 @@
         <v>2884.389526480919</v>
       </c>
       <c r="R25" t="n">
-        <v>2867.258723737626</v>
+        <v>2884.389526480919</v>
       </c>
       <c r="S25" t="n">
-        <v>2708.71552277148</v>
+        <v>2725.846325514773</v>
       </c>
       <c r="T25" t="n">
-        <v>2468.218203094363</v>
+        <v>2485.349005837656</v>
       </c>
       <c r="U25" t="n">
-        <v>2188.070035804416</v>
+        <v>2205.200838547709</v>
       </c>
       <c r="V25" t="n">
-        <v>1906.358568412445</v>
+        <v>1923.489371155738</v>
       </c>
       <c r="W25" t="n">
-        <v>1631.506164584958</v>
+        <v>1648.636967328251</v>
       </c>
       <c r="X25" t="n">
-        <v>1388.942268030763</v>
+        <v>1406.073070774056</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.599499720505</v>
+        <v>1179.730302463798</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1166.518763440692</v>
+        <v>1013.929157039714</v>
       </c>
       <c r="C26" t="n">
-        <v>1166.518763440692</v>
+        <v>1013.929157039714</v>
       </c>
       <c r="D26" t="n">
-        <v>743.2261426256923</v>
+        <v>1013.929157039714</v>
       </c>
       <c r="E26" t="n">
         <v>743.2261426256923</v>
@@ -6253,25 +6253,25 @@
         <v>2884.389526480919</v>
       </c>
       <c r="S26" t="n">
-        <v>2884.389526480919</v>
+        <v>2813.812679319618</v>
       </c>
       <c r="T26" t="n">
-        <v>2669.955131898201</v>
+        <v>2599.3782847369</v>
       </c>
       <c r="U26" t="n">
-        <v>2669.955131898201</v>
+        <v>2599.3782847369</v>
       </c>
       <c r="V26" t="n">
-        <v>2312.465717024451</v>
+        <v>2241.88886986315</v>
       </c>
       <c r="W26" t="n">
-        <v>1916.074367324798</v>
+        <v>1845.497520163497</v>
       </c>
       <c r="X26" t="n">
-        <v>1504.354368492545</v>
+        <v>1433.777521331244</v>
       </c>
       <c r="Y26" t="n">
-        <v>1504.354368492545</v>
+        <v>1433.777521331244</v>
       </c>
     </row>
     <row r="27">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>972.4335310084393</v>
+        <v>1114.286880044621</v>
       </c>
       <c r="C28" t="n">
-        <v>800.4609678873553</v>
+        <v>942.3143169235371</v>
       </c>
       <c r="D28" t="n">
-        <v>637.144195014126</v>
+        <v>778.9975440503079</v>
       </c>
       <c r="E28" t="n">
         <v>612.7893382031614</v>
@@ -6396,10 +6396,10 @@
         <v>1408.527445781151</v>
       </c>
       <c r="N28" t="n">
-        <v>1885.780330621635</v>
+        <v>1885.780330621634</v>
       </c>
       <c r="O28" t="n">
-        <v>2333.354235003842</v>
+        <v>2333.354235003841</v>
       </c>
       <c r="P28" t="n">
         <v>2702.800076713838</v>
@@ -6417,19 +6417,19 @@
         <v>2468.218203094363</v>
       </c>
       <c r="U28" t="n">
-        <v>2188.070035804416</v>
+        <v>2329.923384840597</v>
       </c>
       <c r="V28" t="n">
-        <v>1906.358568412445</v>
+        <v>2048.211917448627</v>
       </c>
       <c r="W28" t="n">
-        <v>1631.506164584958</v>
+        <v>1773.35951362114</v>
       </c>
       <c r="X28" t="n">
-        <v>1388.942268030763</v>
+        <v>1530.795617066945</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.599499720505</v>
+        <v>1304.452848756687</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1718.788763075263</v>
+        <v>1170.126872612392</v>
       </c>
       <c r="C29" t="n">
-        <v>1291.888033088563</v>
+        <v>743.2261426256923</v>
       </c>
       <c r="D29" t="n">
-        <v>1291.888033088563</v>
+        <v>743.2261426256923</v>
       </c>
       <c r="E29" t="n">
-        <v>865.9110932364207</v>
+        <v>743.2261426256923</v>
       </c>
       <c r="F29" t="n">
-        <v>440.7869114258209</v>
+        <v>743.2261426256923</v>
       </c>
       <c r="G29" t="n">
-        <v>57.68779052961839</v>
+        <v>340.3699303288243</v>
       </c>
       <c r="H29" t="n">
         <v>57.68779052961839</v>
@@ -6463,22 +6463,22 @@
         <v>79.5153111966161</v>
       </c>
       <c r="J29" t="n">
-        <v>173.7400856503744</v>
+        <v>565.4693043580005</v>
       </c>
       <c r="K29" t="n">
-        <v>323.2036065185041</v>
+        <v>714.9328252261303</v>
       </c>
       <c r="L29" t="n">
-        <v>514.6228569259183</v>
+        <v>906.3520756335445</v>
       </c>
       <c r="M29" t="n">
-        <v>732.759939129794</v>
+        <v>1124.48915783742</v>
       </c>
       <c r="N29" t="n">
-        <v>955.176451240587</v>
+        <v>1346.905669948213</v>
       </c>
       <c r="O29" t="n">
-        <v>1348.623327075113</v>
+        <v>1554.760295391982</v>
       </c>
       <c r="P29" t="n">
         <v>2062.509734879141</v>
@@ -6493,22 +6493,22 @@
         <v>2884.389526480919</v>
       </c>
       <c r="T29" t="n">
-        <v>2884.389526480919</v>
+        <v>2669.955131898201</v>
       </c>
       <c r="U29" t="n">
-        <v>2884.389526480919</v>
+        <v>2411.718850503708</v>
       </c>
       <c r="V29" t="n">
-        <v>2526.900111607169</v>
+        <v>2054.229435629958</v>
       </c>
       <c r="W29" t="n">
-        <v>2130.508761907516</v>
+        <v>1657.838085930305</v>
       </c>
       <c r="X29" t="n">
-        <v>1718.788763075263</v>
+        <v>1246.118087098052</v>
       </c>
       <c r="Y29" t="n">
-        <v>1718.788763075263</v>
+        <v>1170.126872612392</v>
       </c>
     </row>
     <row r="30">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1114.286880044621</v>
+        <v>989.5643337517322</v>
       </c>
       <c r="C31" t="n">
-        <v>942.3143169235371</v>
+        <v>817.5917706306482</v>
       </c>
       <c r="D31" t="n">
         <v>778.9975440503079</v>
@@ -6627,13 +6627,13 @@
         <v>463.5385125448425</v>
       </c>
       <c r="L31" t="n">
-        <v>915.1503972453452</v>
+        <v>915.1503972453456</v>
       </c>
       <c r="M31" t="n">
-        <v>1408.52744578115</v>
+        <v>1408.527445781151</v>
       </c>
       <c r="N31" t="n">
-        <v>1885.780330621634</v>
+        <v>1885.780330621635</v>
       </c>
       <c r="O31" t="n">
         <v>2333.354235003841</v>
@@ -6645,28 +6645,28 @@
         <v>2884.389526480919</v>
       </c>
       <c r="R31" t="n">
-        <v>2867.258723737626</v>
+        <v>2884.389526480919</v>
       </c>
       <c r="S31" t="n">
-        <v>2708.71552277148</v>
+        <v>2725.846325514773</v>
       </c>
       <c r="T31" t="n">
-        <v>2468.218203094363</v>
+        <v>2485.349005837656</v>
       </c>
       <c r="U31" t="n">
-        <v>2188.070035804416</v>
+        <v>2205.200838547709</v>
       </c>
       <c r="V31" t="n">
-        <v>2048.211917448627</v>
+        <v>1923.489371155738</v>
       </c>
       <c r="W31" t="n">
-        <v>1773.35951362114</v>
+        <v>1648.636967328251</v>
       </c>
       <c r="X31" t="n">
-        <v>1530.795617066945</v>
+        <v>1406.073070774056</v>
       </c>
       <c r="Y31" t="n">
-        <v>1304.452848756687</v>
+        <v>1179.730302463798</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1758.98226299406</v>
+        <v>743.2261426256923</v>
       </c>
       <c r="C32" t="n">
-        <v>1332.08153300736</v>
+        <v>743.2261426256923</v>
       </c>
       <c r="D32" t="n">
-        <v>908.7889121923606</v>
+        <v>743.2261426256923</v>
       </c>
       <c r="E32" t="n">
-        <v>482.8119723402182</v>
+        <v>743.2261426256923</v>
       </c>
       <c r="F32" t="n">
-        <v>57.68779052961839</v>
+        <v>743.2261426256923</v>
       </c>
       <c r="G32" t="n">
-        <v>57.68779052961839</v>
+        <v>340.3699303288243</v>
       </c>
       <c r="H32" t="n">
         <v>57.68779052961839</v>
@@ -6700,25 +6700,25 @@
         <v>79.5153111966161</v>
       </c>
       <c r="J32" t="n">
-        <v>173.7400856503744</v>
+        <v>565.4693043580005</v>
       </c>
       <c r="K32" t="n">
-        <v>323.2036065185041</v>
+        <v>1279.355712162028</v>
       </c>
       <c r="L32" t="n">
-        <v>514.6228569259183</v>
+        <v>1470.774962569442</v>
       </c>
       <c r="M32" t="n">
-        <v>732.759939129794</v>
+        <v>1688.912044773318</v>
       </c>
       <c r="N32" t="n">
-        <v>955.176451240587</v>
+        <v>1911.328556884111</v>
       </c>
       <c r="O32" t="n">
-        <v>1500.861985352864</v>
+        <v>2119.18318232788</v>
       </c>
       <c r="P32" t="n">
-        <v>2214.748393156891</v>
+        <v>2706.597300519627</v>
       </c>
       <c r="Q32" t="n">
         <v>2827.778393383835</v>
@@ -6727,25 +6727,25 @@
         <v>2884.389526480919</v>
       </c>
       <c r="S32" t="n">
-        <v>2884.389526480919</v>
+        <v>2813.812679319618</v>
       </c>
       <c r="T32" t="n">
-        <v>2884.389526480919</v>
+        <v>2599.3782847369</v>
       </c>
       <c r="U32" t="n">
-        <v>2884.389526480919</v>
+        <v>2341.142003342407</v>
       </c>
       <c r="V32" t="n">
-        <v>2590.550626117843</v>
+        <v>1983.652588468657</v>
       </c>
       <c r="W32" t="n">
-        <v>2590.550626117843</v>
+        <v>1587.261238769004</v>
       </c>
       <c r="X32" t="n">
-        <v>2178.83062728559</v>
+        <v>1175.541239936751</v>
       </c>
       <c r="Y32" t="n">
-        <v>2178.83062728559</v>
+        <v>770.2039698916413</v>
       </c>
     </row>
     <row r="33">
@@ -6797,7 +6797,7 @@
         <v>1499.294430502077</v>
       </c>
       <c r="P33" t="n">
-        <v>1738.347622167038</v>
+        <v>1626.229976550787</v>
       </c>
       <c r="Q33" t="n">
         <v>1815.088803698285</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1114.286880044621</v>
+        <v>989.5643337517322</v>
       </c>
       <c r="C34" t="n">
-        <v>942.3143169235371</v>
+        <v>817.5917706306482</v>
       </c>
       <c r="D34" t="n">
-        <v>778.9975440503079</v>
+        <v>654.2749977574189</v>
       </c>
       <c r="E34" t="n">
-        <v>612.7893382031614</v>
+        <v>488.0667919102724</v>
       </c>
       <c r="F34" t="n">
-        <v>440.9275639777218</v>
+        <v>316.2050176848328</v>
       </c>
       <c r="G34" t="n">
-        <v>275.335749784014</v>
+        <v>150.6132034911249</v>
       </c>
       <c r="H34" t="n">
-        <v>137.4533184812108</v>
+        <v>57.68779052961839</v>
       </c>
       <c r="I34" t="n">
         <v>57.68779052961839</v>
@@ -6864,7 +6864,7 @@
         <v>463.5385125448425</v>
       </c>
       <c r="L34" t="n">
-        <v>915.1503972453459</v>
+        <v>915.1503972453454</v>
       </c>
       <c r="M34" t="n">
         <v>1408.527445781151</v>
@@ -6888,22 +6888,22 @@
         <v>2725.846325514773</v>
       </c>
       <c r="T34" t="n">
-        <v>2610.071552130545</v>
+        <v>2485.349005837656</v>
       </c>
       <c r="U34" t="n">
-        <v>2329.923384840597</v>
+        <v>2205.200838547709</v>
       </c>
       <c r="V34" t="n">
-        <v>2048.211917448627</v>
+        <v>1923.489371155738</v>
       </c>
       <c r="W34" t="n">
-        <v>1773.35951362114</v>
+        <v>1648.636967328251</v>
       </c>
       <c r="X34" t="n">
-        <v>1530.795617066945</v>
+        <v>1406.073070774056</v>
       </c>
       <c r="Y34" t="n">
-        <v>1304.452848756687</v>
+        <v>1179.730302463798</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>762.0756044323641</v>
+        <v>1758.98226299406</v>
       </c>
       <c r="C35" t="n">
-        <v>762.0756044323641</v>
+        <v>1332.08153300736</v>
       </c>
       <c r="D35" t="n">
-        <v>762.0756044323641</v>
+        <v>908.7889121923606</v>
       </c>
       <c r="E35" t="n">
-        <v>762.0756044323641</v>
+        <v>482.8119723402182</v>
       </c>
       <c r="F35" t="n">
-        <v>460.5440028264865</v>
+        <v>57.68779052961839</v>
       </c>
       <c r="G35" t="n">
         <v>57.68779052961839</v>
@@ -6955,34 +6955,34 @@
         <v>1554.760295391982</v>
       </c>
       <c r="P35" t="n">
-        <v>2062.509734879141</v>
+        <v>2214.748393156891</v>
       </c>
       <c r="Q35" t="n">
-        <v>2675.539735106085</v>
+        <v>2827.778393383835</v>
       </c>
       <c r="R35" t="n">
         <v>2884.389526480919</v>
       </c>
       <c r="S35" t="n">
-        <v>2813.812679319618</v>
+        <v>2884.389526480919</v>
       </c>
       <c r="T35" t="n">
-        <v>2599.3782847369</v>
+        <v>2884.389526480919</v>
       </c>
       <c r="U35" t="n">
-        <v>2341.142003342407</v>
+        <v>2884.389526480919</v>
       </c>
       <c r="V35" t="n">
-        <v>1983.652588468657</v>
+        <v>2884.389526480919</v>
       </c>
       <c r="W35" t="n">
-        <v>1587.261238769004</v>
+        <v>2884.389526480919</v>
       </c>
       <c r="X35" t="n">
-        <v>1587.261238769004</v>
+        <v>2472.669527648667</v>
       </c>
       <c r="Y35" t="n">
-        <v>1181.923968723894</v>
+        <v>2067.332257603557</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1660.812481215924</v>
+        <v>616.3553637606745</v>
       </c>
       <c r="C36" t="n">
-        <v>1543.306577733428</v>
+        <v>498.8494602781793</v>
       </c>
       <c r="D36" t="n">
-        <v>1439.466619248713</v>
+        <v>395.0095017934643</v>
       </c>
       <c r="E36" t="n">
-        <v>1334.764685521651</v>
+        <v>290.3075680664015</v>
       </c>
       <c r="F36" t="n">
-        <v>1241.118855204555</v>
+        <v>196.6617377493057</v>
       </c>
       <c r="G36" t="n">
-        <v>1147.858478178739</v>
+        <v>103.4013607234903</v>
       </c>
       <c r="H36" t="n">
-        <v>1102.144907984867</v>
+        <v>57.68779052961839</v>
       </c>
       <c r="I36" t="n">
-        <v>1112.907090178064</v>
+        <v>91.90727856722721</v>
       </c>
       <c r="J36" t="n">
-        <v>1165.968820207885</v>
+        <v>437.0715010666385</v>
       </c>
       <c r="K36" t="n">
-        <v>1879.855228011912</v>
+        <v>540.4626082534138</v>
       </c>
       <c r="L36" t="n">
-        <v>2026.404743817357</v>
+        <v>687.0121240588589</v>
       </c>
       <c r="M36" t="n">
-        <v>2200.566607546205</v>
+        <v>861.173987787707</v>
       </c>
       <c r="N36" t="n">
-        <v>2381.679422371965</v>
+        <v>1042.286802613467</v>
       </c>
       <c r="O36" t="n">
-        <v>2543.751547957326</v>
+        <v>1204.358928198828</v>
       </c>
       <c r="P36" t="n">
-        <v>2782.804739622287</v>
+        <v>1331.294474247537</v>
       </c>
       <c r="Q36" t="n">
-        <v>2859.545921153534</v>
+        <v>1709.633303413379</v>
       </c>
       <c r="R36" t="n">
-        <v>2884.389526480919</v>
+        <v>1839.93240902567</v>
       </c>
       <c r="S36" t="n">
-        <v>2817.802238665503</v>
+        <v>1773.345121210254</v>
       </c>
       <c r="T36" t="n">
-        <v>2679.120240600451</v>
+        <v>1634.663123145203</v>
       </c>
       <c r="U36" t="n">
-        <v>2494.404241543547</v>
+        <v>1449.947124088299</v>
       </c>
       <c r="V36" t="n">
-        <v>2289.431102682814</v>
+        <v>1244.973985227565</v>
       </c>
       <c r="W36" t="n">
-        <v>2092.909725516031</v>
+        <v>1048.452608060782</v>
       </c>
       <c r="X36" t="n">
-        <v>1929.432379282694</v>
+        <v>884.9752618274449</v>
       </c>
       <c r="Y36" t="n">
-        <v>1789.739490635986</v>
+        <v>745.2823731807373</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>972.4335310084393</v>
+        <v>1114.286880044621</v>
       </c>
       <c r="C37" t="n">
-        <v>800.4609678873553</v>
+        <v>942.3143169235371</v>
       </c>
       <c r="D37" t="n">
-        <v>637.144195014126</v>
+        <v>778.9975440503079</v>
       </c>
       <c r="E37" t="n">
         <v>612.7893382031614</v>
@@ -7095,19 +7095,19 @@
         <v>57.68779052961839</v>
       </c>
       <c r="J37" t="n">
-        <v>161.2697862118357</v>
+        <v>161.2697862118359</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5385125448425</v>
+        <v>463.5385125448427</v>
       </c>
       <c r="L37" t="n">
-        <v>915.1503972453456</v>
+        <v>915.1503972453459</v>
       </c>
       <c r="M37" t="n">
         <v>1408.527445781151</v>
       </c>
       <c r="N37" t="n">
-        <v>1885.780330621635</v>
+        <v>1885.780330621634</v>
       </c>
       <c r="O37" t="n">
         <v>2333.354235003841</v>
@@ -7137,10 +7137,10 @@
         <v>1631.506164584958</v>
       </c>
       <c r="X37" t="n">
-        <v>1388.942268030763</v>
+        <v>1530.795617066945</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.599499720505</v>
+        <v>1304.452848756687</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1169.203082477835</v>
+        <v>1758.98226299406</v>
       </c>
       <c r="C38" t="n">
-        <v>1169.203082477835</v>
+        <v>1332.08153300736</v>
       </c>
       <c r="D38" t="n">
-        <v>1169.203082477835</v>
+        <v>908.7889121923606</v>
       </c>
       <c r="E38" t="n">
-        <v>743.2261426256923</v>
+        <v>482.8119723402182</v>
       </c>
       <c r="F38" t="n">
-        <v>743.2261426256923</v>
+        <v>57.68779052961839</v>
       </c>
       <c r="G38" t="n">
-        <v>340.3699303288243</v>
+        <v>57.68779052961839</v>
       </c>
       <c r="H38" t="n">
         <v>57.68779052961839</v>
@@ -7174,52 +7174,52 @@
         <v>79.5153111966161</v>
       </c>
       <c r="J38" t="n">
-        <v>173.7400856503744</v>
+        <v>565.4693043580005</v>
       </c>
       <c r="K38" t="n">
-        <v>646.8516401894888</v>
+        <v>714.9328252261303</v>
       </c>
       <c r="L38" t="n">
-        <v>838.270890596903</v>
+        <v>1428.819233030158</v>
       </c>
       <c r="M38" t="n">
-        <v>1056.407972800779</v>
+        <v>1646.956315234033</v>
       </c>
       <c r="N38" t="n">
-        <v>1278.824484911572</v>
+        <v>1869.372827344826</v>
       </c>
       <c r="O38" t="n">
-        <v>1992.710892715599</v>
+        <v>2077.227452788596</v>
       </c>
       <c r="P38" t="n">
-        <v>2706.597300519627</v>
+        <v>2249.020154078556</v>
       </c>
       <c r="Q38" t="n">
-        <v>2827.778393383835</v>
+        <v>2675.539735106085</v>
       </c>
       <c r="R38" t="n">
         <v>2884.389526480919</v>
       </c>
       <c r="S38" t="n">
-        <v>2813.812679319618</v>
+        <v>2884.389526480919</v>
       </c>
       <c r="T38" t="n">
-        <v>2599.3782847369</v>
+        <v>2884.389526480919</v>
       </c>
       <c r="U38" t="n">
-        <v>2341.142003342407</v>
+        <v>2884.389526480919</v>
       </c>
       <c r="V38" t="n">
-        <v>1983.652588468657</v>
+        <v>2884.389526480919</v>
       </c>
       <c r="W38" t="n">
-        <v>1587.261238769004</v>
+        <v>2884.389526480919</v>
       </c>
       <c r="X38" t="n">
-        <v>1587.261238769004</v>
+        <v>2584.1678973307</v>
       </c>
       <c r="Y38" t="n">
-        <v>1181.923968723894</v>
+        <v>2178.83062728559</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>121.5117027526356</v>
       </c>
       <c r="K39" t="n">
-        <v>835.3981105566631</v>
+        <v>460.8507114040464</v>
       </c>
       <c r="L39" t="n">
-        <v>981.9476263621083</v>
+        <v>607.4002272094915</v>
       </c>
       <c r="M39" t="n">
-        <v>1156.109490090956</v>
+        <v>781.5620909383396</v>
       </c>
       <c r="N39" t="n">
-        <v>1337.222304916716</v>
+        <v>962.6749057640995</v>
       </c>
       <c r="O39" t="n">
-        <v>1499.294430502077</v>
+        <v>1124.74703134946</v>
       </c>
       <c r="P39" t="n">
-        <v>1626.229976550787</v>
+        <v>1251.68257739817</v>
       </c>
       <c r="Q39" t="n">
         <v>1815.088803698285</v>
@@ -7311,13 +7311,13 @@
         <v>972.4335310084393</v>
       </c>
       <c r="C40" t="n">
-        <v>800.4609678873553</v>
+        <v>942.3143169235371</v>
       </c>
       <c r="D40" t="n">
-        <v>637.144195014126</v>
+        <v>778.9975440503079</v>
       </c>
       <c r="E40" t="n">
-        <v>470.9359891669795</v>
+        <v>612.7893382031614</v>
       </c>
       <c r="F40" t="n">
         <v>440.9275639777218</v>
@@ -7332,22 +7332,22 @@
         <v>57.68779052961839</v>
       </c>
       <c r="J40" t="n">
-        <v>161.2697862118357</v>
+        <v>161.2697862118359</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5385125448424</v>
+        <v>463.5385125448427</v>
       </c>
       <c r="L40" t="n">
-        <v>915.1503972453454</v>
+        <v>915.1503972453459</v>
       </c>
       <c r="M40" t="n">
         <v>1408.527445781151</v>
       </c>
       <c r="N40" t="n">
-        <v>1885.780330621635</v>
+        <v>1885.780330621634</v>
       </c>
       <c r="O40" t="n">
-        <v>2333.354235003842</v>
+        <v>2333.354235003841</v>
       </c>
       <c r="P40" t="n">
         <v>2702.800076713838</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1314.913844110269</v>
+        <v>886.181553127969</v>
       </c>
       <c r="C41" t="n">
-        <v>888.0131141235689</v>
+        <v>886.181553127969</v>
       </c>
       <c r="D41" t="n">
-        <v>888.0131141235689</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E41" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I41" t="n">
-        <v>58.73951312782442</v>
+        <v>58.73951312782444</v>
       </c>
       <c r="J41" t="n">
-        <v>152.9642875815827</v>
+        <v>506.7237047561023</v>
       </c>
       <c r="K41" t="n">
-        <v>302.4278084497124</v>
+        <v>656.187225624232</v>
       </c>
       <c r="L41" t="n">
-        <v>493.8470588571266</v>
+        <v>847.6064760316463</v>
       </c>
       <c r="M41" t="n">
-        <v>711.9841410610023</v>
+        <v>1065.743558235522</v>
       </c>
       <c r="N41" t="n">
-        <v>934.4006531717953</v>
+        <v>1288.160070346315</v>
       </c>
       <c r="O41" t="n">
-        <v>1142.255278615564</v>
+        <v>1496.014695790084</v>
       </c>
       <c r="P41" t="n">
-        <v>1314.047979905524</v>
+        <v>1667.807397080044</v>
       </c>
       <c r="Q41" t="n">
-        <v>1636.749831666501</v>
+        <v>1788.988489944253</v>
       </c>
       <c r="R41" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S41" t="n">
-        <v>1845.599623041336</v>
+        <v>1775.022775880036</v>
       </c>
       <c r="T41" t="n">
-        <v>1672.403258984019</v>
+        <v>1775.022775880036</v>
       </c>
       <c r="U41" t="n">
-        <v>1672.403258984019</v>
+        <v>1775.022775880036</v>
       </c>
       <c r="V41" t="n">
-        <v>1314.913844110269</v>
+        <v>1417.533361006285</v>
       </c>
       <c r="W41" t="n">
-        <v>1314.913844110269</v>
+        <v>1417.533361006285</v>
       </c>
       <c r="X41" t="n">
-        <v>1314.913844110269</v>
+        <v>1306.029917419499</v>
       </c>
       <c r="Y41" t="n">
-        <v>1314.913844110269</v>
+        <v>1306.029917419499</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>82.62556265469868</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I42" t="n">
-        <v>71.13148049843554</v>
+        <v>71.13148049843555</v>
       </c>
       <c r="J42" t="n">
-        <v>124.1932105282557</v>
+        <v>388.0429899784203</v>
       </c>
       <c r="K42" t="n">
-        <v>580.9791172309865</v>
+        <v>491.4340971651956</v>
       </c>
       <c r="L42" t="n">
-        <v>727.5286330364316</v>
+        <v>637.9836129706407</v>
       </c>
       <c r="M42" t="n">
-        <v>901.6904967652797</v>
+        <v>812.1454766994888</v>
       </c>
       <c r="N42" t="n">
-        <v>1082.80331159104</v>
+        <v>993.2582915252488</v>
       </c>
       <c r="O42" t="n">
-        <v>1244.875437176401</v>
+        <v>1155.33041711061</v>
       </c>
       <c r="P42" t="n">
-        <v>1701.661343879131</v>
+        <v>1612.11632381334</v>
       </c>
       <c r="Q42" t="n">
-        <v>1778.402525410378</v>
+        <v>1688.857505344587</v>
       </c>
       <c r="R42" t="n">
         <v>1819.156610956878</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.8845555819107</v>
+        <v>709.6549168742874</v>
       </c>
       <c r="C43" t="n">
-        <v>36.91199246082672</v>
+        <v>537.6823537532034</v>
       </c>
       <c r="D43" t="n">
-        <v>36.91199246082672</v>
+        <v>374.3655808799742</v>
       </c>
       <c r="E43" t="n">
-        <v>36.91199246082672</v>
+        <v>374.3655808799742</v>
       </c>
       <c r="F43" t="n">
-        <v>36.91199246082672</v>
+        <v>202.5038066545346</v>
       </c>
       <c r="G43" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H43" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J43" t="n">
-        <v>62.5722714948232</v>
+        <v>62.57227149482321</v>
       </c>
       <c r="K43" t="n">
-        <v>364.84099782783</v>
+        <v>117.5583887138079</v>
       </c>
       <c r="L43" t="n">
-        <v>816.452882528333</v>
+        <v>569.1702734143111</v>
       </c>
       <c r="M43" t="n">
-        <v>896.2944506013165</v>
+        <v>649.0118414872945</v>
       </c>
       <c r="N43" t="n">
-        <v>998.3639245599502</v>
+        <v>998.3639245599506</v>
       </c>
       <c r="O43" t="n">
-        <v>1445.937828942157</v>
+        <v>1445.937828942158</v>
       </c>
       <c r="P43" t="n">
         <v>1815.383670652154</v>
       </c>
       <c r="Q43" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R43" t="n">
-        <v>1845.599623041336</v>
+        <v>1828.468820298044</v>
       </c>
       <c r="S43" t="n">
-        <v>1845.599623041336</v>
+        <v>1669.925619331897</v>
       </c>
       <c r="T43" t="n">
-        <v>1605.10230336422</v>
+        <v>1650.439017842777</v>
       </c>
       <c r="U43" t="n">
-        <v>1424.521060377887</v>
+        <v>1650.439017842777</v>
       </c>
       <c r="V43" t="n">
-        <v>1142.809592985916</v>
+        <v>1368.727550450806</v>
       </c>
       <c r="W43" t="n">
-        <v>867.9571891584293</v>
+        <v>1368.727550450806</v>
       </c>
       <c r="X43" t="n">
-        <v>625.3932926042344</v>
+        <v>1126.163653896611</v>
       </c>
       <c r="Y43" t="n">
-        <v>399.0505242939764</v>
+        <v>899.8208855863531</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1043.871003296573</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C44" t="n">
-        <v>1043.871003296573</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D44" t="n">
-        <v>1043.871003296573</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E44" t="n">
-        <v>617.8940634444308</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F44" t="n">
-        <v>192.769881633831</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G44" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I44" t="n">
-        <v>58.73951312782442</v>
+        <v>58.73951312782444</v>
       </c>
       <c r="J44" t="n">
-        <v>152.9642875815827</v>
+        <v>354.4850464783512</v>
       </c>
       <c r="K44" t="n">
-        <v>302.4278084497124</v>
+        <v>503.9485673464809</v>
       </c>
       <c r="L44" t="n">
-        <v>493.8470588571266</v>
+        <v>695.3678177538951</v>
       </c>
       <c r="M44" t="n">
-        <v>711.9841410610023</v>
+        <v>913.5048999577708</v>
       </c>
       <c r="N44" t="n">
-        <v>934.4006531717953</v>
+        <v>1135.921412068564</v>
       </c>
       <c r="O44" t="n">
-        <v>1142.255278615564</v>
+        <v>1343.776037512333</v>
       </c>
       <c r="P44" t="n">
-        <v>1314.047979905524</v>
+        <v>1515.568738802293</v>
       </c>
       <c r="Q44" t="n">
-        <v>1636.749831666501</v>
+        <v>1636.749831666502</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041336</v>
+        <v>1775.022775880036</v>
       </c>
       <c r="T44" t="n">
-        <v>1845.599623041336</v>
+        <v>1775.022775880036</v>
       </c>
       <c r="U44" t="n">
-        <v>1845.599623041336</v>
+        <v>1775.022775880036</v>
       </c>
       <c r="V44" t="n">
-        <v>1845.599623041336</v>
+        <v>1775.022775880036</v>
       </c>
       <c r="W44" t="n">
-        <v>1449.208273341683</v>
+        <v>1775.022775880036</v>
       </c>
       <c r="X44" t="n">
-        <v>1449.208273341683</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="Y44" t="n">
-        <v>1043.871003296573</v>
+        <v>1738.206464925269</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>82.62556265469868</v>
       </c>
       <c r="H45" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I45" t="n">
-        <v>71.13148049843554</v>
+        <v>47.67417465402372</v>
       </c>
       <c r="J45" t="n">
-        <v>124.1932105282557</v>
+        <v>392.838397153435</v>
       </c>
       <c r="K45" t="n">
-        <v>227.584317715031</v>
+        <v>496.2295043402103</v>
       </c>
       <c r="L45" t="n">
-        <v>673.1201925072921</v>
+        <v>642.7790201456554</v>
       </c>
       <c r="M45" t="n">
-        <v>847.2820562361402</v>
+        <v>816.9408838745035</v>
       </c>
       <c r="N45" t="n">
-        <v>1028.3948710619</v>
+        <v>998.0536987002635</v>
       </c>
       <c r="O45" t="n">
-        <v>1485.180777764631</v>
+        <v>1160.125824285625</v>
       </c>
       <c r="P45" t="n">
-        <v>1612.11632381334</v>
+        <v>1287.061370334334</v>
       </c>
       <c r="Q45" t="n">
-        <v>1688.857505344587</v>
+        <v>1743.847277037065</v>
       </c>
       <c r="R45" t="n">
         <v>1819.156610956878</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>208.7737666862663</v>
+        <v>710.2713085277261</v>
       </c>
       <c r="C46" t="n">
-        <v>208.7737666862663</v>
+        <v>538.2987454066421</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7737666862663</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="E46" t="n">
         <v>208.7737666862663</v>
       </c>
       <c r="F46" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J46" t="n">
-        <v>62.5722714948232</v>
+        <v>140.4939881430441</v>
       </c>
       <c r="K46" t="n">
-        <v>117.5583887138079</v>
+        <v>195.4801053620288</v>
       </c>
       <c r="L46" t="n">
-        <v>397.5483157277963</v>
+        <v>270.703096471367</v>
       </c>
       <c r="M46" t="n">
-        <v>854.334222430527</v>
+        <v>727.4890031740978</v>
       </c>
       <c r="N46" t="n">
-        <v>1311.120129133258</v>
+        <v>1184.274909876829</v>
       </c>
       <c r="O46" t="n">
-        <v>1758.694033515465</v>
+        <v>1631.848814259036</v>
       </c>
       <c r="P46" t="n">
         <v>1815.383670652154</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041336</v>
+        <v>1828.468820298044</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041336</v>
+        <v>1669.925619331897</v>
       </c>
       <c r="T46" t="n">
-        <v>1704.55843877219</v>
+        <v>1669.925619331897</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.410271482243</v>
+        <v>1454.030377219666</v>
       </c>
       <c r="V46" t="n">
-        <v>1142.698804090272</v>
+        <v>1454.030377219666</v>
       </c>
       <c r="W46" t="n">
-        <v>867.8464002627849</v>
+        <v>1179.177973392179</v>
       </c>
       <c r="X46" t="n">
-        <v>625.28250370859</v>
+        <v>936.614076837984</v>
       </c>
       <c r="Y46" t="n">
-        <v>398.9397353983319</v>
+        <v>710.2713085277261</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L2" t="n">
-        <v>481.7770299789514</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7993,16 +7993,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,22 +8066,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738758</v>
+        <v>464.1005135391148</v>
       </c>
       <c r="O3" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P3" t="n">
-        <v>107.2386302028318</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>62.24691767208638</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>480.1887482250051</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>457.1346235160602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163582</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,16 +8300,16 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>382.4247840754558</v>
       </c>
       <c r="M6" t="n">
-        <v>465.8542658379013</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8318,7 +8318,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8382,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>42.23240770727544</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8391,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,25 +8458,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>114.6301304286941</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>190.7148107956833</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>100.4610141345437</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>291.5984102914557</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8628,10 +8628,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>357.3327446207269</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>203.5563221179481</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>266.5149287375399</v>
+        <v>304.6440885197924</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>333.1821824788095</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8856,16 +8856,16 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>380.7518572017649</v>
+        <v>324.5623120232063</v>
       </c>
       <c r="N13" t="n">
-        <v>259.7258129762975</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>203.556322117948</v>
+        <v>18.33798316767448</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>338.9947614530525</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>313.3700918154401</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>27.28123509900666</v>
       </c>
       <c r="O15" t="n">
-        <v>297.6906879973433</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>95.15703876205674</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>383.8835607792766</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>206.8352887925762</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
         <v>380.7518572017649</v>
       </c>
       <c r="N16" t="n">
-        <v>381.3797421253809</v>
+        <v>261.0525106652252</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>570.1241282180786</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>511.1432145053117</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>339.350240603231</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.5860555266705</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9245,25 +9245,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>304.6440885197926</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>234.6622656304781</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>339.3502406032309</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>500.7568945456079</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>496.4342380739744</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9479,13 +9479,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>148.8296547176012</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.3881638572389</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>304.6440885197926</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,13 +9649,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>339.3502406032308</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>339.350240603231</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
@@ -9716,16 +9716,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>573.0675676753358</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>156.8444992271931</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>434.8590442059721</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>187.4669195866233</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>547.5694005192603</v>
+        <v>339.350240603231</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>570.1241282180786</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>341.2433420894019</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>547.5694005192603</v>
+        <v>419.8196130321079</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>113.2501470871224</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>113.2501470871223</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>339.350240603231</v>
+        <v>493.1266631060096</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>616.6619198154063</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>113.2501470871229</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>304.6440885197926</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>326.9172057282673</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>527.7446034309226</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>511.1432145053117</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>547.5694005192603</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>308.4227153164851</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>616.6619198154063</v>
+        <v>238.3312136006419</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.2501470871223</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>357.3327446207269</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.5563221179476</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>266.51492873754</v>
       </c>
       <c r="K42" t="n">
-        <v>356.9644439555105</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>333.1821824788093</v>
+        <v>333.1821824788095</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>16.07119214051997</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>23.08031511114135</v>
+        <v>272.8607283576287</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>203.556322117948</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.5563221179476</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>302.0064232190061</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>297.6906879973431</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>383.8835607792766</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>50.97548342669508</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>206.835288792576</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>380.7518572017648</v>
+        <v>380.7518572017649</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3797421253807</v>
+        <v>381.3797421253809</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>128.1264840974037</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23269,13 +23269,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>108.6693745037281</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>279.8553184012138</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.87107868968786</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.2900506368909</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>22.49390775923337</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>114.4083434315365</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9358960517708</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>136.5036069897751</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>78.9678726720765</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>98.57125506057798</v>
+        <v>277.3466856170475</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23503,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>301.2835723090228</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.8276501738994</v>
@@ -23548,13 +23548,13 @@
         <v>69.87107868968786</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.2900506368909</v>
       </c>
       <c r="U14" t="n">
         <v>255.6539185805481</v>
       </c>
       <c r="V14" t="n">
-        <v>24.8980332248122</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>127.8101433119953</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9358960517708</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>60.06059829888439</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>78.9678726720765</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>16.95949471585981</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.8276501738994</v>
       </c>
       <c r="H17" t="n">
-        <v>279.8553184012138</v>
+        <v>194.2052138034716</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.87107868968786</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>240.5396547133494</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>136.5036069897751</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.93120855604452</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>140.4348155458195</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>370.0066599534762</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.8276501738994</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>58.82588573145617</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.87107868968786</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.2900506368909</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>140.43481554582</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>140.4348155458199</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>344.7270854184785</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>160.0224202419504</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>279.8553184012138</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.87107868968786</v>
       </c>
       <c r="T23" t="n">
-        <v>212.2900506368909</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6539185805481</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>140.43481554582</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>44.50744815788359</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>78.9678726720765</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>16.95949471585981</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.19263164728028</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>153.7211861837395</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.87107868968786</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>140.43481554582</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>140.4348155458195</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>19.5595204866589</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>279.8553184012138</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>69.87107868968786</v>
       </c>
       <c r="T29" t="n">
-        <v>212.2900506368909</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6539185805481</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>326.0525950038551</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>123.4753208299601</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>16.95949471585981</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>140.4348155458198</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>388.9418316553252</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.8276501738994</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>279.8553184012138</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.87107868968786</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.2900506368909</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6539185805481</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>63.0140093655674</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>44.50744815788359</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>78.9678726720765</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>123.4753208299595</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>110.3833859852128</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>122.3566544026749</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.8276501738994</v>
       </c>
       <c r="H35" t="n">
         <v>279.8553184012138</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>69.87107868968786</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.2900506368909</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6539185805481</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25320,64 +25320,64 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>140.43481554582</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>403.056203265016</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.8276501738994</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>279.8553184012138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>69.87107868968786</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.2900506368909</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6539185805481</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>110.3833859852129</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>140.43481554582</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>140.43481554582</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.8276501738994</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>69.87107868968786</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>40.82565022014739</v>
+        <v>212.2900506368909</v>
       </c>
       <c r="U41" t="n">
         <v>255.6539185805481</v>
@@ -25693,7 +25693,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>297.214389693012</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9358960517708</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>136.5036069897751</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.95949471585981</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.9577689564853</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>218.8006110061162</v>
       </c>
       <c r="U43" t="n">
-        <v>98.57125506057841</v>
+        <v>277.3466856170475</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>244.5283398926252</v>
+        <v>398.8276501738994</v>
       </c>
       <c r="H44" t="n">
         <v>279.8553184012138</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>69.87107868968786</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>212.2900506368909</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>371.1546509987108</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.95949471585981</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>156.9577689564853</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>98.46157405389043</v>
+        <v>238.0923464803452</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>63.6103959259386</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>384473.4701006334</v>
+        <v>384473.4701006335</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>384473.4701006335</v>
+        <v>384473.4701006334</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>531126.7034215915</v>
+        <v>531126.7034215917</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>531126.7034215915</v>
+        <v>531126.7034215917</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>531126.7034215915</v>
+        <v>531126.7034215917</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>531126.7034215914</v>
+        <v>531126.7034215917</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>531126.7034215915</v>
+        <v>531126.7034215917</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>384473.4701006334</v>
+        <v>384473.4701006333</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>334904.5341064188</v>
+      </c>
+      <c r="C2" t="n">
         <v>334904.5341064187</v>
-      </c>
-      <c r="C2" t="n">
-        <v>334904.5341064188</v>
       </c>
       <c r="D2" t="n">
         <v>334904.5341064187</v>
@@ -26328,34 +26328,34 @@
         <v>178038.4312380031</v>
       </c>
       <c r="G2" t="n">
+        <v>238075.1004923718</v>
+      </c>
+      <c r="H2" t="n">
         <v>238075.1004923717</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>238075.1004923718</v>
       </c>
-      <c r="I2" t="n">
-        <v>238075.1004923717</v>
-      </c>
       <c r="J2" t="n">
-        <v>238075.1004923717</v>
+        <v>238075.1004923718</v>
       </c>
       <c r="K2" t="n">
         <v>238075.1004923718</v>
       </c>
       <c r="L2" t="n">
-        <v>238075.1004923717</v>
+        <v>238075.1004923718</v>
       </c>
       <c r="M2" t="n">
-        <v>238075.1004923717</v>
+        <v>238075.1004923718</v>
       </c>
       <c r="N2" t="n">
-        <v>238075.1004923717</v>
+        <v>238075.1004923718</v>
       </c>
       <c r="O2" t="n">
         <v>178038.4312380031</v>
       </c>
       <c r="P2" t="n">
-        <v>178038.4312380032</v>
+        <v>178038.4312380031</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71179.18267105955</v>
+        <v>71179.18267105952</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>230061.7875075233</v>
       </c>
       <c r="E4" t="n">
-        <v>21054.2111306234</v>
+        <v>21054.21113062339</v>
       </c>
       <c r="F4" t="n">
         <v>21054.21113062339</v>
@@ -26435,7 +26435,7 @@
         <v>45183.61334089387</v>
       </c>
       <c r="H4" t="n">
-        <v>45183.61334089388</v>
+        <v>45183.61334089387</v>
       </c>
       <c r="I4" t="n">
         <v>45183.61334089388</v>
@@ -26444,22 +26444,22 @@
         <v>45183.61334089387</v>
       </c>
       <c r="K4" t="n">
-        <v>45183.61334089386</v>
+        <v>45183.61334089388</v>
       </c>
       <c r="L4" t="n">
         <v>45183.61334089386</v>
       </c>
       <c r="M4" t="n">
-        <v>45183.61334089388</v>
+        <v>45183.61334089386</v>
       </c>
       <c r="N4" t="n">
         <v>45183.61334089386</v>
       </c>
       <c r="O4" t="n">
-        <v>21054.21113062338</v>
+        <v>21054.2111306234</v>
       </c>
       <c r="P4" t="n">
-        <v>21054.21113062338</v>
+        <v>21054.21113062339</v>
       </c>
     </row>
     <row r="5">
@@ -26508,10 +26508,10 @@
         <v>51803.43500194645</v>
       </c>
       <c r="O5" t="n">
-        <v>36013.82846966478</v>
+        <v>36013.82846966479</v>
       </c>
       <c r="P5" t="n">
-        <v>36013.82846966478</v>
+        <v>36013.82846966479</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-111463.6882894533</v>
       </c>
       <c r="C6" t="n">
-        <v>43162.03232866712</v>
+        <v>43162.03232866715</v>
       </c>
       <c r="D6" t="n">
         <v>43162.03232866709</v>
       </c>
       <c r="E6" t="n">
-        <v>-172408.584048976</v>
+        <v>-173090.6105831866</v>
       </c>
       <c r="F6" t="n">
-        <v>120970.3916377149</v>
+        <v>120288.3651035044</v>
       </c>
       <c r="G6" t="n">
-        <v>69908.86947847187</v>
+        <v>69487.87194101961</v>
       </c>
       <c r="H6" t="n">
-        <v>141088.0521495315</v>
+        <v>140667.054612079</v>
       </c>
       <c r="I6" t="n">
-        <v>141088.0521495314</v>
+        <v>140667.0546120791</v>
       </c>
       <c r="J6" t="n">
-        <v>20365.53520677455</v>
+        <v>19944.5376693222</v>
       </c>
       <c r="K6" t="n">
-        <v>141088.0521495315</v>
+        <v>140667.0546120791</v>
       </c>
       <c r="L6" t="n">
-        <v>141088.0521495313</v>
+        <v>140667.0546120791</v>
       </c>
       <c r="M6" t="n">
-        <v>141088.0521495314</v>
+        <v>140667.0546120791</v>
       </c>
       <c r="N6" t="n">
-        <v>141088.0521495314</v>
+        <v>140667.0546120791</v>
       </c>
       <c r="O6" t="n">
-        <v>120970.3916377149</v>
+        <v>120288.3651035045</v>
       </c>
       <c r="P6" t="n">
-        <v>120970.391637715</v>
+        <v>120288.3651035045</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
         <v>461.3999057603341</v>
@@ -26828,10 +26828,10 @@
         <v>721.0973816202298</v>
       </c>
       <c r="O4" t="n">
-        <v>461.399905760334</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P4" t="n">
-        <v>461.399905760334</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>259.6974758598958</v>
+        <v>259.6974758598957</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>259.6974758598958</v>
+        <v>259.6974758598957</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>48.81198202095277</v>
       </c>
       <c r="X2" t="n">
-        <v>316.7263380150384</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27587,25 +27587,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>162.2967222797619</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.1935051702348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.7446737571173</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>263.068294942708</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>36.19118757106997</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>139.5498067107883</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.26407947698971</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>169.9905558048149</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27915,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4.07727958062128</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -28067,7 +28067,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>186.7445559110557</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L2" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603341</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P3" t="n">
-        <v>85.46778899800312</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.61016168818452</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603341</v>
+        <v>359.9096973612262</v>
       </c>
       <c r="M6" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35102,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781578962</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35111,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>77.19886752926232</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>168.31557696235</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>269.6796503957545</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35348,10 +35348,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>22.04800067373505</v>
       </c>
       <c r="J11" t="n">
-        <v>452.509284473008</v>
+        <v>95.17653985228111</v>
       </c>
       <c r="K11" t="n">
         <v>150.9732534021512</v>
@@ -35430,10 +35430,10 @@
         <v>173.5279811009696</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.4051443072817</v>
+        <v>325.9614664252297</v>
       </c>
       <c r="R11" t="n">
-        <v>57.18296272432698</v>
+        <v>210.9593852271059</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>34.5651394319281</v>
       </c>
       <c r="J12" t="n">
-        <v>53.5977071008285</v>
+        <v>348.6507297973852</v>
       </c>
       <c r="K12" t="n">
-        <v>370.9503905423634</v>
+        <v>409.0795503246159</v>
       </c>
       <c r="L12" t="n">
         <v>148.029813944894</v>
@@ -35506,7 +35506,7 @@
         <v>163.7092177629909</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603341</v>
+        <v>128.2177232815247</v>
       </c>
       <c r="Q12" t="n">
         <v>77.51634498105753</v>
@@ -35576,16 +35576,16 @@
         <v>75.98281930236175</v>
       </c>
       <c r="M13" t="n">
-        <v>461.3999057603341</v>
+        <v>405.2103605817755</v>
       </c>
       <c r="N13" t="n">
-        <v>339.7459766112508</v>
+        <v>80.02016363495329</v>
       </c>
       <c r="O13" t="n">
         <v>452.0948529113202</v>
       </c>
       <c r="P13" t="n">
-        <v>57.26225973402948</v>
+        <v>373.1776178888857</v>
       </c>
       <c r="Q13" t="n">
         <v>30.52116402947688</v>
@@ -35646,7 +35646,7 @@
         <v>22.04800067373505</v>
       </c>
       <c r="J14" t="n">
-        <v>298.7328619702291</v>
+        <v>113.5145230199556</v>
       </c>
       <c r="K14" t="n">
         <v>150.9732534021512</v>
@@ -35667,10 +35667,10 @@
         <v>173.5279811009696</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.4051443072817</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R14" t="n">
-        <v>210.9593852271059</v>
+        <v>57.18296272432698</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>34.5651394319281</v>
       </c>
       <c r="J15" t="n">
-        <v>53.5977071008285</v>
+        <v>348.6507297973852</v>
       </c>
       <c r="K15" t="n">
         <v>104.4354618048235</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3999057603341</v>
+        <v>148.029813944894</v>
       </c>
       <c r="M15" t="n">
         <v>175.9210744735839</v>
       </c>
       <c r="N15" t="n">
-        <v>182.9422371977374</v>
+        <v>210.2234722967441</v>
       </c>
       <c r="O15" t="n">
+        <v>163.7092177629909</v>
+      </c>
+      <c r="P15" t="n">
+        <v>128.2177232815247</v>
+      </c>
+      <c r="Q15" t="n">
         <v>461.3999057603341</v>
-      </c>
-      <c r="P15" t="n">
-        <v>223.3747620435815</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>77.51634498105753</v>
       </c>
       <c r="R15" t="n">
         <v>25.09455083574282</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.91947377171362</v>
+        <v>104.6282784668862</v>
       </c>
       <c r="K16" t="n">
-        <v>55.54153254442903</v>
+        <v>305.3219457909159</v>
       </c>
       <c r="L16" t="n">
-        <v>282.8181080949379</v>
+        <v>456.1736209095991</v>
       </c>
       <c r="M16" t="n">
         <v>461.3999057603341</v>
       </c>
       <c r="N16" t="n">
-        <v>461.3999057603341</v>
+        <v>341.0726743001785</v>
       </c>
       <c r="O16" t="n">
-        <v>452.0948529113202</v>
+        <v>70.57735361515532</v>
       </c>
       <c r="P16" t="n">
         <v>57.26225973402948</v>
@@ -35883,10 +35883,10 @@
         <v>22.04800067373505</v>
       </c>
       <c r="J17" t="n">
-        <v>95.17653985228111</v>
+        <v>490.8626193549338</v>
       </c>
       <c r="K17" t="n">
-        <v>721.0973816202298</v>
+        <v>150.9732534021512</v>
       </c>
       <c r="L17" t="n">
         <v>193.3527781893073</v>
@@ -35898,13 +35898,13 @@
         <v>224.6631435462555</v>
       </c>
       <c r="O17" t="n">
-        <v>721.0973816202298</v>
+        <v>209.9541671149182</v>
       </c>
       <c r="P17" t="n">
-        <v>173.5279811009696</v>
+        <v>512.8782217042005</v>
       </c>
       <c r="Q17" t="n">
-        <v>272.9911998339521</v>
+        <v>619.2222224514586</v>
       </c>
       <c r="R17" t="n">
         <v>210.9593852271059</v>
@@ -35965,7 +35965,7 @@
         <v>348.6507297973852</v>
       </c>
       <c r="K18" t="n">
-        <v>409.0795503246161</v>
+        <v>104.4354618048235</v>
       </c>
       <c r="L18" t="n">
         <v>148.029813944894</v>
@@ -35983,7 +35983,7 @@
         <v>128.2177232815247</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.51634498105753</v>
+        <v>382.1604335008501</v>
       </c>
       <c r="R18" t="n">
         <v>131.6152581942335</v>
@@ -36120,19 +36120,19 @@
         <v>22.04800067373505</v>
       </c>
       <c r="J20" t="n">
-        <v>329.8388054827592</v>
+        <v>490.8626193549338</v>
       </c>
       <c r="K20" t="n">
-        <v>150.9732534021512</v>
+        <v>490.3234940053821</v>
       </c>
       <c r="L20" t="n">
         <v>193.3527781893073</v>
       </c>
       <c r="M20" t="n">
-        <v>721.0973816202298</v>
+        <v>220.3404870746219</v>
       </c>
       <c r="N20" t="n">
-        <v>721.0973816202298</v>
+        <v>224.6631435462555</v>
       </c>
       <c r="O20" t="n">
         <v>209.9541671149182</v>
@@ -36141,7 +36141,7 @@
         <v>173.5279811009696</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.4051443072817</v>
+        <v>619.2222224514586</v>
       </c>
       <c r="R20" t="n">
         <v>210.9593852271059</v>
@@ -36199,13 +36199,13 @@
         <v>34.5651394319281</v>
       </c>
       <c r="J21" t="n">
-        <v>53.5977071008285</v>
+        <v>348.6507297973852</v>
       </c>
       <c r="K21" t="n">
         <v>104.4354618048235</v>
       </c>
       <c r="L21" t="n">
-        <v>296.8594686624953</v>
+        <v>148.029813944894</v>
       </c>
       <c r="M21" t="n">
         <v>175.9210744735839</v>
@@ -36214,16 +36214,16 @@
         <v>182.9422371977374</v>
       </c>
       <c r="O21" t="n">
-        <v>721.0973816202298</v>
+        <v>163.7092177629909</v>
       </c>
       <c r="P21" t="n">
         <v>128.2177232815247</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.51634498105753</v>
+        <v>382.1604335008501</v>
       </c>
       <c r="R21" t="n">
-        <v>25.09455083574282</v>
+        <v>131.6152581942335</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36369,13 +36369,13 @@
         <v>220.3404870746219</v>
       </c>
       <c r="N23" t="n">
-        <v>564.0133841494862</v>
+        <v>224.6631435462555</v>
       </c>
       <c r="O23" t="n">
         <v>209.9541671149182</v>
       </c>
       <c r="P23" t="n">
-        <v>173.5279811009696</v>
+        <v>512.8782217042005</v>
       </c>
       <c r="Q23" t="n">
         <v>619.2222224514586</v>
@@ -36436,16 +36436,16 @@
         <v>10.87089110423938</v>
       </c>
       <c r="J24" t="n">
-        <v>53.5977071008285</v>
+        <v>348.6507297973852</v>
       </c>
       <c r="K24" t="n">
         <v>104.4354618048235</v>
       </c>
       <c r="L24" t="n">
-        <v>721.0973816202298</v>
+        <v>148.029813944894</v>
       </c>
       <c r="M24" t="n">
-        <v>332.765573700777</v>
+        <v>175.9210744735839</v>
       </c>
       <c r="N24" t="n">
         <v>182.9422371977374</v>
@@ -36457,7 +36457,7 @@
         <v>128.2177232815247</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.51634498105753</v>
+        <v>512.3753891870296</v>
       </c>
       <c r="R24" t="n">
         <v>25.09455083574282</v>
@@ -36831,7 +36831,7 @@
         <v>22.04800067373505</v>
       </c>
       <c r="J29" t="n">
-        <v>95.17653985228111</v>
+        <v>490.8626193549338</v>
       </c>
       <c r="K29" t="n">
         <v>150.9732534021512</v>
@@ -36846,10 +36846,10 @@
         <v>224.6631435462555</v>
       </c>
       <c r="O29" t="n">
-        <v>397.4210867015416</v>
+        <v>209.9541671149182</v>
       </c>
       <c r="P29" t="n">
-        <v>721.0973816202298</v>
+        <v>512.8782217042005</v>
       </c>
       <c r="Q29" t="n">
         <v>619.2222224514586</v>
@@ -37068,10 +37068,10 @@
         <v>22.04800067373505</v>
       </c>
       <c r="J32" t="n">
-        <v>95.17653985228111</v>
+        <v>490.8626193549338</v>
       </c>
       <c r="K32" t="n">
-        <v>150.9732534021512</v>
+        <v>721.0973816202298</v>
       </c>
       <c r="L32" t="n">
         <v>193.3527781893073</v>
@@ -37083,13 +37083,13 @@
         <v>224.6631435462555</v>
       </c>
       <c r="O32" t="n">
-        <v>551.1975092043202</v>
+        <v>209.9541671149182</v>
       </c>
       <c r="P32" t="n">
-        <v>721.0973816202298</v>
+        <v>593.3475941330775</v>
       </c>
       <c r="Q32" t="n">
-        <v>619.2222224514586</v>
+        <v>122.4051443072817</v>
       </c>
       <c r="R32" t="n">
         <v>57.18296272432698</v>
@@ -37165,10 +37165,10 @@
         <v>163.7092177629909</v>
       </c>
       <c r="P33" t="n">
-        <v>241.4678703686471</v>
+        <v>128.2177232815247</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.51634498105753</v>
+        <v>190.7664920681798</v>
       </c>
       <c r="R33" t="n">
         <v>25.09455083574282</v>
@@ -37323,13 +37323,13 @@
         <v>209.9541671149182</v>
       </c>
       <c r="P35" t="n">
-        <v>512.8782217042005</v>
+        <v>666.6546442069791</v>
       </c>
       <c r="Q35" t="n">
         <v>619.2222224514586</v>
       </c>
       <c r="R35" t="n">
-        <v>210.9593852271059</v>
+        <v>57.18296272432698</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.87089110423938</v>
+        <v>34.5651394319281</v>
       </c>
       <c r="J36" t="n">
-        <v>53.5977071008285</v>
+        <v>348.6507297973852</v>
       </c>
       <c r="K36" t="n">
-        <v>721.0973816202298</v>
+        <v>104.4354618048235</v>
       </c>
       <c r="L36" t="n">
         <v>148.029813944894</v>
@@ -37402,13 +37402,13 @@
         <v>163.7092177629909</v>
       </c>
       <c r="P36" t="n">
-        <v>241.4678703686476</v>
+        <v>128.2177232815247</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.51634498105753</v>
+        <v>382.1604335008501</v>
       </c>
       <c r="R36" t="n">
-        <v>25.09455083574282</v>
+        <v>131.6152581942335</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>22.04800067373505</v>
       </c>
       <c r="J38" t="n">
-        <v>95.17653985228111</v>
+        <v>490.8626193549338</v>
       </c>
       <c r="K38" t="n">
-        <v>477.8904591304185</v>
+        <v>150.9732534021512</v>
       </c>
       <c r="L38" t="n">
-        <v>193.3527781893073</v>
+        <v>721.0973816202298</v>
       </c>
       <c r="M38" t="n">
         <v>220.3404870746219</v>
@@ -37557,16 +37557,16 @@
         <v>224.6631435462555</v>
       </c>
       <c r="O38" t="n">
-        <v>721.0973816202298</v>
+        <v>209.9541671149182</v>
       </c>
       <c r="P38" t="n">
-        <v>721.0973816202298</v>
+        <v>173.5279811009696</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.4051443072817</v>
+        <v>430.8278596237668</v>
       </c>
       <c r="R38" t="n">
-        <v>57.18296272432698</v>
+        <v>210.9593852271059</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>53.5977071008285</v>
       </c>
       <c r="K39" t="n">
-        <v>721.0973816202298</v>
+        <v>342.7666754054654</v>
       </c>
       <c r="L39" t="n">
         <v>148.029813944894</v>
@@ -37642,7 +37642,7 @@
         <v>128.2177232815247</v>
       </c>
       <c r="Q39" t="n">
-        <v>190.7664920681798</v>
+        <v>569.0971982829444</v>
       </c>
       <c r="R39" t="n">
         <v>25.09455083574282</v>
@@ -37779,7 +37779,7 @@
         <v>22.04800067373505</v>
       </c>
       <c r="J41" t="n">
-        <v>95.17653985228111</v>
+        <v>452.509284473008</v>
       </c>
       <c r="K41" t="n">
         <v>150.9732534021512</v>
@@ -37800,10 +37800,10 @@
         <v>173.5279811009696</v>
       </c>
       <c r="Q41" t="n">
-        <v>325.9614664252293</v>
+        <v>122.4051443072817</v>
       </c>
       <c r="R41" t="n">
-        <v>210.9593852271059</v>
+        <v>57.18296272432698</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>34.5651394319281</v>
       </c>
       <c r="J42" t="n">
-        <v>53.5977071008285</v>
+        <v>320.1126358383685</v>
       </c>
       <c r="K42" t="n">
-        <v>461.399905760334</v>
+        <v>104.4354618048235</v>
       </c>
       <c r="L42" t="n">
         <v>148.029813944894</v>
@@ -37876,13 +37876,13 @@
         <v>163.7092177629909</v>
       </c>
       <c r="P42" t="n">
-        <v>461.399905760334</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q42" t="n">
         <v>77.51634498105753</v>
       </c>
       <c r="R42" t="n">
-        <v>41.16574297626279</v>
+        <v>131.6152581942335</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>25.91947377171362</v>
       </c>
       <c r="K43" t="n">
-        <v>305.3219457909159</v>
+        <v>55.54153254442903</v>
       </c>
       <c r="L43" t="n">
         <v>456.1736209095991</v>
@@ -37949,7 +37949,7 @@
         <v>80.64804855856919</v>
       </c>
       <c r="N43" t="n">
-        <v>103.1004787460946</v>
+        <v>352.880891992582</v>
       </c>
       <c r="O43" t="n">
         <v>452.0948529113202</v>
@@ -38016,7 +38016,7 @@
         <v>22.04800067373505</v>
       </c>
       <c r="J44" t="n">
-        <v>95.17653985228111</v>
+        <v>298.7328619702291</v>
       </c>
       <c r="K44" t="n">
         <v>150.9732534021512</v>
@@ -38037,7 +38037,7 @@
         <v>173.5279811009696</v>
       </c>
       <c r="Q44" t="n">
-        <v>325.9614664252293</v>
+        <v>122.4051443072817</v>
       </c>
       <c r="R44" t="n">
         <v>210.9593852271059</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5651394319281</v>
+        <v>10.87089110423938</v>
       </c>
       <c r="J45" t="n">
-        <v>53.5977071008285</v>
+        <v>348.6507297973852</v>
       </c>
       <c r="K45" t="n">
         <v>104.4354618048235</v>
       </c>
       <c r="L45" t="n">
-        <v>450.0362371639002</v>
+        <v>148.029813944894</v>
       </c>
       <c r="M45" t="n">
         <v>175.9210744735839</v>
@@ -38110,16 +38110,16 @@
         <v>182.9422371977374</v>
       </c>
       <c r="O45" t="n">
-        <v>461.399905760334</v>
+        <v>163.7092177629909</v>
       </c>
       <c r="P45" t="n">
         <v>128.2177232815247</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.51634498105753</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R45" t="n">
-        <v>131.6152581942335</v>
+        <v>76.0700342624379</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.91947377171362</v>
+        <v>104.6282784668862</v>
       </c>
       <c r="K46" t="n">
         <v>55.54153254442903</v>
       </c>
       <c r="L46" t="n">
-        <v>282.8181080949377</v>
+        <v>75.98281930236175</v>
       </c>
       <c r="M46" t="n">
-        <v>461.399905760334</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N46" t="n">
-        <v>461.399905760334</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O46" t="n">
         <v>452.0948529113202</v>
       </c>
       <c r="P46" t="n">
-        <v>57.26225973402948</v>
+        <v>185.3887438314332</v>
       </c>
       <c r="Q46" t="n">
         <v>30.52116402947688</v>
